--- a/3Dゲーム制作/仕様書/仕様書_TEAM_RARITY.xlsx
+++ b/3Dゲーム制作/仕様書/仕様書_TEAM_RARITY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\3Dチーム\仕様書・ガントチャート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\3Dチーム\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="247">
   <si>
     <t>今日の日付</t>
     <rPh sb="0" eb="2">
@@ -378,14 +378,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スピードタイプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジャンプタイプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>破壊可能オブジェクト(市街地)</t>
     <rPh sb="0" eb="2">
       <t>ハカイ</t>
@@ -894,10 +886,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>バランスタイプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>規格</t>
     <rPh sb="0" eb="2">
       <t>キカク</t>
@@ -1078,10 +1066,6 @@
   </si>
   <si>
     <t>machinegun</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>launcher</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1174,12 +1158,425 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>オブジェクトの破壊音</t>
+    <t>近接(刃物)</t>
+    <rPh sb="0" eb="2">
+      <t>キンセツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハモノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バランスタイプ(15パーツ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スピードタイプ(15パーツ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプタイプ(15パーツ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tree06</t>
+  </si>
+  <si>
+    <t>破壊不可能オブジェクト(荒野)</t>
+    <rPh sb="0" eb="2">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>フカノウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>枯れ木</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rocket</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクト破壊音</t>
+    <rPh sb="6" eb="8">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slash</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hung</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>髙橋</t>
+    <rPh sb="0" eb="2">
+      <t>タカハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完成済</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小関</t>
+    <rPh sb="0" eb="2">
+      <t>コセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三浦</t>
+    <rPh sb="0" eb="2">
+      <t>ミウラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hung</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝利ポーズ１</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝利ポーズ２</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝利ポーズ３</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>victory00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>victory01</t>
+  </si>
+  <si>
+    <t>victory02</t>
+  </si>
+  <si>
+    <t>三浦・高橋</t>
+    <rPh sb="0" eb="2">
+      <t>ミウラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タカハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やられ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>堀合</t>
+    <rPh sb="0" eb="2">
+      <t>ホリアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テクスチャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>道路１</t>
+    <rPh sb="0" eb="2">
+      <t>ドウロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>road00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路面(横断歩道左側)</t>
+    <rPh sb="0" eb="2">
+      <t>ロメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オウダン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホドウ</t>
+    </rPh>
     <rPh sb="7" eb="9">
-      <t>ハカイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オン</t>
+      <t>ヒダリガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路面(横断歩道右側)</t>
+    <rPh sb="0" eb="2">
+      <t>ロメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オウダン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ミギガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路面(センターライン左側)</t>
+    <rPh sb="0" eb="2">
+      <t>ロメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒダリガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路面(センターライン右側)</t>
+    <rPh sb="0" eb="2">
+      <t>ロメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ミギガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路面(無地)</t>
+    <rPh sb="0" eb="2">
+      <t>ロメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ムジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>道路２</t>
+    <rPh sb="0" eb="2">
+      <t>ドウロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>road01</t>
+  </si>
+  <si>
+    <t>道路３</t>
+    <rPh sb="0" eb="2">
+      <t>ドウロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>road02</t>
+  </si>
+  <si>
+    <t>道路４</t>
+    <rPh sb="0" eb="2">
+      <t>ドウロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>road03</t>
+  </si>
+  <si>
+    <t>道路５</t>
+    <rPh sb="0" eb="2">
+      <t>ドウロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>road04</t>
+  </si>
+  <si>
+    <t>テクスチャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>草地</t>
+    <rPh sb="0" eb="2">
+      <t>クサチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>荒地</t>
+    <rPh sb="0" eb="2">
+      <t>アレチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>grass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wasterland</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>草原</t>
+    <rPh sb="0" eb="2">
+      <t>ソウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝利ポーズ１</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝利ポーズ２</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝利ポーズ３</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>斬りつけモーション</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やられモーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投げモーション</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>射撃モーション</t>
+    <rPh sb="0" eb="2">
+      <t>シャゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>着地モーション</t>
+    <rPh sb="0" eb="2">
+      <t>チャクチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプモーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走行モーション</t>
+    <rPh sb="0" eb="2">
+      <t>ソウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニュートラルモーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冬期休暇中着手</t>
+    <rPh sb="0" eb="2">
+      <t>トウキ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>キュウカチュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チャクシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本制御は概ね完成</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オオム</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1191,7 +1588,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1217,6 +1614,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
@@ -1262,7 +1667,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1446,13 +1851,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1498,9 +2002,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1513,17 +2014,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1531,14 +2026,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1564,11 +2053,68 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="60">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1579,7 +2125,411 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1600,14 +2550,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>198129</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
@@ -1618,8 +2568,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8732520" y="1569720"/>
-          <a:ext cx="1600200" cy="388620"/>
+          <a:off x="9929958" y="1582783"/>
+          <a:ext cx="1826613" cy="388620"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1657,14 +2607,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>194497</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>610314</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>714</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
@@ -1675,8 +2625,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8724900" y="2263140"/>
-          <a:ext cx="1608534" cy="419100"/>
+          <a:off x="9926326" y="2276203"/>
+          <a:ext cx="1830959" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1714,14 +2664,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>358139</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>217712</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>642222</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>32621</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
@@ -1732,8 +2682,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8740139" y="2941320"/>
-          <a:ext cx="1625203" cy="426720"/>
+          <a:off x="9949541" y="2954383"/>
+          <a:ext cx="1839651" cy="426720"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1771,14 +2721,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>350519</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>210092</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>634602</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>25001</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -1789,8 +2739,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8732519" y="4404360"/>
-          <a:ext cx="1625203" cy="388620"/>
+          <a:off x="9941921" y="4417423"/>
+          <a:ext cx="1839651" cy="388620"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1828,14 +2778,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>350519</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>210092</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>634602</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>25001</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -1846,8 +2796,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8732519" y="5082540"/>
-          <a:ext cx="1625203" cy="388620"/>
+          <a:off x="9941921" y="5092337"/>
+          <a:ext cx="1839651" cy="388620"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1885,14 +2835,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>548639</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>613953</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>162162</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>227476</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -1903,8 +2853,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10942319" y="4404360"/>
-          <a:ext cx="1625203" cy="388620"/>
+          <a:off x="12370524" y="4417423"/>
+          <a:ext cx="1638266" cy="388620"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1942,14 +2892,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>634602</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>25001</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>224790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>548639</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>613953</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>224790</xdr:rowOff>
     </xdr:to>
@@ -1963,8 +2913,258 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10357722" y="4598670"/>
-          <a:ext cx="584597" cy="0"/>
+          <a:off x="11781572" y="4611733"/>
+          <a:ext cx="588952" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>435063</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>436522</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10841806" y="1971403"/>
+          <a:ext cx="1459" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>435063</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>462624</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10841806" y="2695303"/>
+          <a:ext cx="27561" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>455004</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>455004</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="69" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10861747" y="4051663"/>
+          <a:ext cx="0" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>455004</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>455004</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10861747" y="4806043"/>
+          <a:ext cx="0" cy="286294"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>83257</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="0"/>
+          <a:endCxn id="2" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11756571" y="1777093"/>
+          <a:ext cx="1433086" cy="2640330"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1993,263 +3193,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>476607</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="3" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="9529167" y="1958340"/>
-          <a:ext cx="3453" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>476607</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>500181</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="2"/>
-          <a:endCxn id="4" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9529167" y="2682240"/>
-          <a:ext cx="23574" cy="259080"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>492561</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>492561</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="69" idx="2"/>
-          <a:endCxn id="5" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9545121" y="4038600"/>
-          <a:ext cx="0" cy="365760"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>492561</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>492561</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線矢印コネクタ 22"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="2"/>
-          <a:endCxn id="6" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9545121" y="4792980"/>
-          <a:ext cx="0" cy="289560"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>20121</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線矢印コネクタ 26"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="0"/>
-          <a:endCxn id="2" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="10332720" y="1764030"/>
-          <a:ext cx="1422201" cy="2640330"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>350519</xdr:colOff>
+      <xdr:colOff>210092</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>634602</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>25001</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
@@ -2260,8 +3210,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8732519" y="3649980"/>
-          <a:ext cx="1625203" cy="388620"/>
+          <a:off x="9941921" y="3663043"/>
+          <a:ext cx="1839651" cy="388620"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -2299,14 +3249,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>492561</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>455004</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>500181</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>462624</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -2320,7 +3270,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9545121" y="3368040"/>
+          <a:off x="10861747" y="3381103"/>
           <a:ext cx="7620" cy="281940"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2613,29 +3563,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.8984375" style="9" customWidth="1"/>
     <col min="2" max="2" width="15.19921875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.8984375" style="7" customWidth="1"/>
-    <col min="4" max="6" width="13.8984375" customWidth="1"/>
-    <col min="7" max="7" width="34.296875" customWidth="1"/>
+    <col min="3" max="3" width="14.8984375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13.8984375" style="7" customWidth="1"/>
+    <col min="5" max="6" width="13.8984375" customWidth="1"/>
+    <col min="7" max="7" width="19.796875" customWidth="1"/>
+    <col min="8" max="8" width="33.69921875" customWidth="1"/>
     <col min="13" max="13" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2655,1199 +3607,1874 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="8">
         <f ca="1">TODAY()</f>
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="C3" s="6">
         <v>44225</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <v>44246</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <v>44260</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <v>44274</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="17">
         <v>44281</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="6" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="6" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="14"/>
+      <c r="B7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="11"/>
+      <c r="B8" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="45">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="11"/>
+      <c r="B9" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="E9" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="14"/>
-      <c r="B7" s="29" t="s">
+      <c r="F9" s="45">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="11"/>
+      <c r="B10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="16" t="s">
+      <c r="C10" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="E10" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="11"/>
-      <c r="B8" s="30" t="s">
+      <c r="F10" s="45">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="11"/>
+      <c r="B11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="C11" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13" t="s">
+      <c r="F11" s="45">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="11"/>
+      <c r="B12" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="45">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="11"/>
+      <c r="B13" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="45">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="11"/>
+      <c r="B14" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="45">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="11"/>
+      <c r="B15" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="45">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="11"/>
+      <c r="B16" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="45">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="11"/>
-      <c r="B9" s="30" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="11"/>
+      <c r="B17" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="45">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="11"/>
+      <c r="B18" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="11"/>
-      <c r="B10" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="11"/>
-      <c r="B11" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="C18" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="11"/>
-      <c r="B12" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
+      <c r="D18" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="45">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="11"/>
-      <c r="B13" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="11"/>
-      <c r="B14" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="11"/>
-      <c r="B15" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="11"/>
-      <c r="B16" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="13" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="11"/>
+      <c r="B19" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="E19" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="11"/>
-      <c r="B17" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="F19" s="45">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="11"/>
+      <c r="B20" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="E20" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="11"/>
-      <c r="B18" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="11"/>
-      <c r="B19" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="11"/>
-      <c r="B20" s="30" t="s">
+      <c r="F20" s="45">
+        <v>0</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="45"/>
       <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="11"/>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="45">
+        <v>1</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="11"/>
+      <c r="B23" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="45">
+        <v>1</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="11"/>
+      <c r="B24" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" s="45">
+        <v>0</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="11"/>
+      <c r="B25" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="11"/>
-      <c r="B23" s="31" t="s">
+      <c r="F25" s="45">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="11"/>
+      <c r="B26" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="13" t="s">
+      <c r="C26" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13" t="s">
+      <c r="F26" s="45">
+        <v>0</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="18"/>
+      <c r="B27" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" s="45">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="11"/>
+      <c r="B28" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" s="45">
+        <v>0</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="11"/>
+      <c r="B29" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" s="45">
+        <v>0</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="11"/>
+      <c r="B30" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="F30" s="45">
+        <v>0</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="11"/>
+      <c r="B31" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" s="45">
+        <v>1</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="11"/>
-      <c r="B24" s="31" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="11"/>
+      <c r="B32" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13" t="s">
+      <c r="C32" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="45">
+        <v>1</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="11"/>
+      <c r="B33" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" s="45">
+        <v>1</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="11"/>
+      <c r="B34" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="45">
+        <v>0</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H34" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="11"/>
-      <c r="B25" s="31" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="11"/>
+      <c r="B35" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13" t="s">
+      <c r="C35" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" s="45">
+        <v>0</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="11"/>
+      <c r="B36" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" s="45">
+        <v>1</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="11"/>
+      <c r="B37" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" s="45">
+        <v>1</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="20"/>
+      <c r="B38" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" s="45">
+        <v>1</v>
+      </c>
+      <c r="G38" s="21"/>
+      <c r="H38" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="22"/>
+      <c r="B39" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="F39" s="45">
+        <v>1</v>
+      </c>
+      <c r="G39" s="21"/>
+      <c r="H39" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="22"/>
+      <c r="B40" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E40" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="F40" s="45">
+        <v>1</v>
+      </c>
+      <c r="G40" s="21"/>
+      <c r="H40" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="22"/>
+      <c r="B41" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E41" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="F41" s="45">
+        <v>1</v>
+      </c>
+      <c r="G41" s="21"/>
+      <c r="H41" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="11"/>
+      <c r="B42" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E42" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="F42" s="45">
+        <v>0</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="11"/>
+      <c r="B43" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E43" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" s="45">
+        <v>0</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" s="11"/>
+      <c r="B44" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E44" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="F44" s="45">
+        <v>0</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" s="11"/>
+      <c r="B45" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E45" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="F45" s="45">
+        <v>0</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="11"/>
+      <c r="B46" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E46" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F46" s="45">
+        <v>0</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A47" s="11"/>
+      <c r="B47" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E47" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="F47" s="45">
+        <v>0</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H47" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" s="11"/>
+      <c r="B48" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E48" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="F48" s="45">
+        <v>0</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A49" s="11"/>
+      <c r="B49" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E49" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="F49" s="45">
+        <v>1</v>
+      </c>
+      <c r="G49" s="13"/>
+      <c r="H49" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" s="11"/>
+      <c r="B50" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E50" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F50" s="45">
+        <v>0</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H50" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A51" s="11"/>
+      <c r="B51" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E51" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="F51" s="45">
+        <v>0</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A52" s="11"/>
+      <c r="B52" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E52" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="F52" s="45">
+        <v>0</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H52" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A53" s="11"/>
+      <c r="B53" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E53" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="F53" s="45">
+        <v>0</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H53" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A54" s="11"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A55" s="11"/>
+      <c r="B55" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E55" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="F55" s="45">
+        <v>0</v>
+      </c>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A56" s="11"/>
+      <c r="B56" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E56" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="F56" s="45">
+        <v>0</v>
+      </c>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A57" s="11"/>
+      <c r="B57" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E57" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="F57" s="45">
+        <v>0</v>
+      </c>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A58" s="11"/>
+      <c r="B58" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E58" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="F58" s="45">
+        <v>0</v>
+      </c>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A59" s="11"/>
+      <c r="B59" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E59" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="F59" s="45">
+        <v>0</v>
+      </c>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A60" s="11"/>
+      <c r="B60" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E60" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="F60" s="45">
+        <v>0</v>
+      </c>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A61" s="11"/>
+      <c r="B61" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E61" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="F61" s="45">
+        <v>0</v>
+      </c>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A62" s="11"/>
+      <c r="B62" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E62" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="F62" s="45">
+        <v>0</v>
+      </c>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A63" s="11"/>
+      <c r="B63" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E63" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="F63" s="45">
+        <v>0</v>
+      </c>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A64" s="11"/>
+      <c r="B64" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E64" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="F64" s="45">
+        <v>0</v>
+      </c>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A65" s="11"/>
+      <c r="B65" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E65" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="F65" s="45">
+        <v>0</v>
+      </c>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A66" s="11"/>
+      <c r="B66" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E66" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="F66" s="45">
+        <v>0</v>
+      </c>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A67" s="11"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A68" s="11"/>
+      <c r="B68" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C68" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="D68" s="12"/>
+      <c r="E68" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F68" s="45">
+        <v>0</v>
+      </c>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A69" s="11"/>
+      <c r="B69" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="D69" s="12"/>
+      <c r="E69" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="F69" s="45">
+        <v>0</v>
+      </c>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A70" s="11"/>
+      <c r="B70" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C70" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="D70" s="12"/>
+      <c r="E70" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="F70" s="45">
+        <v>0</v>
+      </c>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A71" s="11"/>
+      <c r="B71" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C71" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="D71" s="12"/>
+      <c r="E71" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="F71" s="45">
+        <v>0</v>
+      </c>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A72" s="11"/>
+      <c r="B72" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="D72" s="12"/>
+      <c r="E72" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="F72" s="45">
+        <v>0</v>
+      </c>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A73" s="11"/>
+      <c r="B73" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C73" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="D73" s="12"/>
+      <c r="E73" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="F73" s="45">
+        <v>0</v>
+      </c>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A74" s="11"/>
+      <c r="B74" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C74" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="D74" s="12"/>
+      <c r="E74" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="F74" s="45">
+        <v>0</v>
+      </c>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A75" s="11"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A76" s="11"/>
+      <c r="B76" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C76" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D76" s="12"/>
+      <c r="E76" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="F76" s="45">
+        <v>0</v>
+      </c>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A77" s="11"/>
+      <c r="B77" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C77" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D77" s="12"/>
+      <c r="E77" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="F77" s="45">
+        <v>0</v>
+      </c>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A78" s="11"/>
+      <c r="B78" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C78" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D78" s="12"/>
+      <c r="E78" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="F78" s="45">
+        <v>0</v>
+      </c>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="11"/>
-      <c r="B26" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13" t="s">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A79" s="11"/>
+      <c r="B79" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C79" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D79" s="12"/>
+      <c r="E79" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="F79" s="45">
+        <v>0</v>
+      </c>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="19"/>
-      <c r="B27" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A80" s="11"/>
+      <c r="B80" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D80" s="12"/>
+      <c r="E80" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="F80" s="45">
+        <v>0</v>
+      </c>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="11"/>
-      <c r="B28" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="11"/>
-      <c r="B29" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="11"/>
-      <c r="B30" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="11"/>
-      <c r="B31" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="11"/>
-      <c r="B32" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="11"/>
-      <c r="B33" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="11"/>
-      <c r="B34" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="11"/>
-      <c r="B35" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="11"/>
-      <c r="B36" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="11"/>
-      <c r="B37" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="22"/>
-      <c r="B38" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="25"/>
-      <c r="B39" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="25"/>
-      <c r="B40" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" s="25"/>
-      <c r="B41" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" s="11"/>
-      <c r="B42" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="11"/>
-      <c r="B43" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" s="11"/>
-      <c r="B44" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" s="11"/>
-      <c r="B45" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="27" t="s">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A81" s="11"/>
+      <c r="B81" s="31" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" s="11"/>
-      <c r="B46" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" s="11"/>
-      <c r="B47" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" s="11"/>
-      <c r="B48" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A49" s="11"/>
-      <c r="B49" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" s="11"/>
-      <c r="B50" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" s="11"/>
-      <c r="B51" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" s="11"/>
-      <c r="B52" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="11"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="11"/>
-      <c r="B54" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A55" s="11"/>
-      <c r="B55" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A56" s="11"/>
-      <c r="B56" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A57" s="11"/>
-      <c r="B57" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A58" s="11"/>
-      <c r="B58" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A59" s="11"/>
-      <c r="B59" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A60" s="11"/>
-      <c r="B60" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A61" s="11"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A62" s="11"/>
-      <c r="B62" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A63" s="11"/>
-      <c r="B63" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D63" s="13" t="s">
+      <c r="C81" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D81" s="12"/>
+      <c r="E81" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A64" s="11"/>
-      <c r="B64" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D64" s="13" t="s">
+      <c r="F81" s="45">
+        <v>0</v>
+      </c>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A82" s="11"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="41"/>
+      <c r="F82" s="45"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A83" s="11"/>
+      <c r="B83" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C83" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D83" s="12"/>
+      <c r="E83" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A65" s="11"/>
-      <c r="B65" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D65" s="13" t="s">
+      <c r="F83" s="45">
+        <v>0</v>
+      </c>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A84" s="11"/>
+      <c r="B84" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C84" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D84" s="12"/>
+      <c r="E84" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A66" s="11"/>
-      <c r="B66" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66" s="12" t="s">
+      <c r="F84" s="45">
+        <v>0</v>
+      </c>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A85" s="11"/>
+      <c r="B85" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="C85" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D85" s="12"/>
+      <c r="E85" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A67" s="11"/>
-      <c r="B67" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D67" s="13" t="s">
+      <c r="F85" s="45">
+        <v>0</v>
+      </c>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A86" s="11"/>
+      <c r="B86" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C86" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D86" s="12"/>
+      <c r="E86" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A68" s="11"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A69" s="11"/>
-      <c r="B69" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D69" s="13" t="s">
+      <c r="F86" s="45">
+        <v>0</v>
+      </c>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A87" s="11"/>
+      <c r="B87" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C87" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D87" s="12"/>
+      <c r="E87" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A70" s="11"/>
-      <c r="B70" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D70" s="13" t="s">
+      <c r="F87" s="45">
+        <v>0</v>
+      </c>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A88" s="11"/>
+      <c r="B88" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C88" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D88" s="12"/>
+      <c r="E88" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A71" s="11"/>
-      <c r="B71" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D71" s="13" t="s">
+      <c r="F88" s="45">
+        <v>0</v>
+      </c>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A89" s="11"/>
+      <c r="B89" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C89" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D89" s="12"/>
+      <c r="E89" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A72" s="11"/>
-      <c r="B72" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D72" s="13" t="s">
+      <c r="F89" s="45">
+        <v>0</v>
+      </c>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A90" s="11"/>
+      <c r="B90" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C90" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="D90" s="12"/>
+      <c r="E90" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A73" s="11"/>
-      <c r="B73" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A74" s="11"/>
-      <c r="B74" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A75" s="11"/>
-      <c r="B75" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A76" s="11"/>
-      <c r="B76" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="27" t="s">
-        <v>187</v>
+      <c r="F90" s="45">
+        <v>0</v>
+      </c>
+      <c r="G90" s="13"/>
+      <c r="H90" s="23" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3">
-    <cfRule type="timePeriod" dxfId="1" priority="1" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="19" priority="9" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(B3,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(B3,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="0" priority="2" timePeriod="nextMonth">
+    <cfRule type="timePeriod" dxfId="18" priority="10" timePeriod="nextMonth">
       <formula>AND(MONTH(B3)=MONTH(EDATE(TODAY(),0+1)),YEAR(B3)=YEAR(EDATE(TODAY(),0+1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="テクスチャ">
+      <formula>NOT(ISERROR(SEARCH("テクスチャ",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="SE">
+      <formula>NOT(ISERROR(SEARCH("SE",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="BGM">
+      <formula>NOT(ISERROR(SEARCH("BGM",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="モーション">
+      <formula>NOT(ISERROR(SEARCH("モーション",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="モデル">
+      <formula>NOT(ISERROR(SEARCH("モデル",B1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="プログラム">
+      <formula>NOT(ISERROR(SEARCH("プログラム",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:F90">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThanOrEqual">
+      <formula>0.3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3Dゲーム制作/仕様書/仕様書_TEAM_RARITY.xlsx
+++ b/3Dゲーム制作/仕様書/仕様書_TEAM_RARITY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\3Dチーム\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="285">
   <si>
     <t>今日の日付</t>
     <rPh sb="0" eb="2">
@@ -1577,6 +1577,256 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択タブモード１</t>
+  </si>
+  <si>
+    <t>セレクト背景</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択タブモード2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セレクトタイトル１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セレクトタイトル２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セレクトタイトル３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択タブキャラ１</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択タブキャラ２</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択タブキャラ３</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択タブステージ1</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択タブステージ２</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択タブステージ3</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>select_bg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>serect_mode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>select_chara</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>select_stage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セレクト画面背景</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モード選択タイトル</t>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラ選択タイトル</t>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ選択タイトル</t>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1人用選択タブ</t>
+    <rPh sb="1" eb="3">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2人用選択タブ</t>
+    <rPh sb="1" eb="5">
+      <t>リヨウセンタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バランスタイプ選択</t>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スピードタイプ選択</t>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプタイプ選択</t>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市街地選択</t>
+    <rPh sb="0" eb="3">
+      <t>シガイチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>荒野選択</t>
+    <rPh sb="0" eb="2">
+      <t>コウヤ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森林選択</t>
+    <rPh sb="0" eb="2">
+      <t>シンリン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル背景</t>
+    <rPh sb="4" eb="6">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト背景</t>
+    <rPh sb="4" eb="6">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝利テクスチャ</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敗北テクスチャ</t>
+    <rPh sb="0" eb="2">
+      <t>ハイボク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝利ロゴ</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敗北ロゴ</t>
+    <rPh sb="0" eb="2">
+      <t>ハイボク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幅960×高さ160</t>
+    <rPh sb="0" eb="1">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幅220×高さ440</t>
+    <rPh sb="0" eb="1">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2100,7 +2350,7 @@
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -2171,365 +2421,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3563,20 +3454,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <pane ySplit="6" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.8984375" style="9" customWidth="1"/>
     <col min="2" max="2" width="15.19921875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.8984375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="17.69921875" style="7" customWidth="1"/>
     <col min="4" max="4" width="13.8984375" style="7" customWidth="1"/>
-    <col min="5" max="6" width="13.8984375" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" customWidth="1"/>
     <col min="7" max="7" width="19.796875" customWidth="1"/>
     <col min="8" max="8" width="33.69921875" customWidth="1"/>
     <col min="13" max="13" width="8.796875" customWidth="1"/>
@@ -3610,7 +3502,7 @@
     <row r="3" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="8">
         <f ca="1">TODAY()</f>
-        <v>44188</v>
+        <v>44265</v>
       </c>
       <c r="C3" s="6">
         <v>44225</v>
@@ -5139,341 +5031,627 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="11"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="36"/>
+      <c r="B75" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C75" s="36" t="s">
+        <v>275</v>
+      </c>
       <c r="D75" s="12"/>
       <c r="E75" s="41"/>
       <c r="F75" s="45"/>
       <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
+      <c r="H75" s="13" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="11"/>
-      <c r="B76" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C76" s="34" t="s">
-        <v>60</v>
+      <c r="B76" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C76" s="36" t="s">
+        <v>276</v>
       </c>
       <c r="D76" s="12"/>
-      <c r="E76" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="F76" s="45">
-        <v>0</v>
-      </c>
+      <c r="E76" s="41"/>
+      <c r="F76" s="45"/>
       <c r="G76" s="13"/>
       <c r="H76" s="13" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="11"/>
-      <c r="B77" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C77" s="34" t="s">
-        <v>59</v>
+      <c r="B77" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C77" s="36" t="s">
+        <v>277</v>
       </c>
       <c r="D77" s="12"/>
-      <c r="E77" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="F77" s="45">
-        <v>0</v>
-      </c>
+      <c r="E77" s="41"/>
+      <c r="F77" s="45"/>
       <c r="G77" s="13"/>
       <c r="H77" s="13" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="11"/>
-      <c r="B78" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C78" s="34" t="s">
-        <v>69</v>
+      <c r="B78" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C78" s="36" t="s">
+        <v>278</v>
       </c>
       <c r="D78" s="12"/>
-      <c r="E78" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="F78" s="45">
-        <v>0</v>
-      </c>
+      <c r="E78" s="41"/>
+      <c r="F78" s="45"/>
       <c r="G78" s="13"/>
       <c r="H78" s="13" t="s">
-        <v>44</v>
+        <v>282</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="11"/>
-      <c r="B79" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C79" s="34" t="s">
-        <v>70</v>
+      <c r="B79" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C79" s="36" t="s">
+        <v>248</v>
       </c>
       <c r="D79" s="12"/>
       <c r="E79" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="F79" s="45">
-        <v>0</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="F79" s="45"/>
       <c r="G79" s="13"/>
       <c r="H79" s="13" t="s">
-        <v>45</v>
+        <v>263</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="11"/>
-      <c r="B80" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C80" s="34" t="s">
-        <v>71</v>
+      <c r="B80" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>250</v>
       </c>
       <c r="D80" s="12"/>
       <c r="E80" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="F80" s="45">
-        <v>0</v>
-      </c>
-      <c r="G80" s="13"/>
+        <v>260</v>
+      </c>
+      <c r="F80" s="45"/>
+      <c r="G80" s="13" t="s">
+        <v>283</v>
+      </c>
       <c r="H80" s="13" t="s">
-        <v>46</v>
+        <v>264</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="11"/>
-      <c r="B81" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C81" s="34" t="s">
-        <v>72</v>
+      <c r="B81" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>251</v>
       </c>
       <c r="D81" s="12"/>
       <c r="E81" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="F81" s="45">
-        <v>0</v>
-      </c>
-      <c r="G81" s="13"/>
+        <v>261</v>
+      </c>
+      <c r="F81" s="45"/>
+      <c r="G81" s="13" t="s">
+        <v>283</v>
+      </c>
       <c r="H81" s="13" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="11"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="34"/>
+      <c r="B82" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C82" s="36" t="s">
+        <v>252</v>
+      </c>
       <c r="D82" s="12"/>
-      <c r="E82" s="41"/>
+      <c r="E82" s="41" t="s">
+        <v>262</v>
+      </c>
       <c r="F82" s="45"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
+      <c r="G82" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="H82" s="13" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="11"/>
-      <c r="B83" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C83" s="34" t="s">
-        <v>101</v>
+      <c r="B83" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C83" s="36" t="s">
+        <v>247</v>
       </c>
       <c r="D83" s="12"/>
-      <c r="E83" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="F83" s="45">
-        <v>0</v>
-      </c>
-      <c r="G83" s="13"/>
+      <c r="E83" s="41"/>
+      <c r="F83" s="45"/>
+      <c r="G83" s="13" t="s">
+        <v>284</v>
+      </c>
       <c r="H83" s="13" t="s">
-        <v>103</v>
+        <v>267</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" s="11"/>
-      <c r="B84" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C84" s="34" t="s">
-        <v>74</v>
+      <c r="B84" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C84" s="36" t="s">
+        <v>249</v>
       </c>
       <c r="D84" s="12"/>
-      <c r="E84" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="F84" s="45">
-        <v>0</v>
-      </c>
-      <c r="G84" s="13"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="45"/>
+      <c r="G84" s="13" t="s">
+        <v>284</v>
+      </c>
       <c r="H84" s="13" t="s">
-        <v>102</v>
+        <v>268</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" s="11"/>
-      <c r="B85" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C85" s="34" t="s">
-        <v>75</v>
+      <c r="B85" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C85" s="36" t="s">
+        <v>253</v>
       </c>
       <c r="D85" s="12"/>
-      <c r="E85" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="F85" s="45">
-        <v>0</v>
-      </c>
-      <c r="G85" s="13"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="45"/>
+      <c r="G85" s="13" t="s">
+        <v>284</v>
+      </c>
       <c r="H85" s="13" t="s">
-        <v>104</v>
+        <v>269</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" s="11"/>
-      <c r="B86" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C86" s="34" t="s">
-        <v>98</v>
+      <c r="B86" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C86" s="36" t="s">
+        <v>254</v>
       </c>
       <c r="D86" s="12"/>
-      <c r="E86" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="F86" s="45">
-        <v>0</v>
-      </c>
-      <c r="G86" s="13"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="45"/>
+      <c r="G86" s="13" t="s">
+        <v>284</v>
+      </c>
       <c r="H86" s="13" t="s">
-        <v>105</v>
+        <v>270</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" s="11"/>
-      <c r="B87" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C87" s="34" t="s">
-        <v>106</v>
+      <c r="B87" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C87" s="36" t="s">
+        <v>255</v>
       </c>
       <c r="D87" s="12"/>
-      <c r="E87" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="F87" s="45">
-        <v>0</v>
-      </c>
-      <c r="G87" s="13"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="45"/>
+      <c r="G87" s="13" t="s">
+        <v>284</v>
+      </c>
       <c r="H87" s="13" t="s">
-        <v>107</v>
+        <v>271</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" s="11"/>
-      <c r="B88" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C88" s="34" t="s">
-        <v>99</v>
+      <c r="B88" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C88" s="36" t="s">
+        <v>256</v>
       </c>
       <c r="D88" s="12"/>
-      <c r="E88" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="F88" s="45">
-        <v>0</v>
-      </c>
-      <c r="G88" s="13"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="45"/>
+      <c r="G88" s="13" t="s">
+        <v>284</v>
+      </c>
       <c r="H88" s="13" t="s">
-        <v>108</v>
+        <v>272</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" s="11"/>
-      <c r="B89" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C89" s="34" t="s">
-        <v>100</v>
+      <c r="B89" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C89" s="36" t="s">
+        <v>257</v>
       </c>
       <c r="D89" s="12"/>
-      <c r="E89" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="F89" s="45">
-        <v>0</v>
-      </c>
-      <c r="G89" s="13"/>
+      <c r="E89" s="41"/>
+      <c r="F89" s="45"/>
+      <c r="G89" s="13" t="s">
+        <v>284</v>
+      </c>
       <c r="H89" s="13" t="s">
-        <v>109</v>
+        <v>273</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" s="11"/>
-      <c r="B90" s="30" t="s">
+      <c r="B90" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C90" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="D90" s="12"/>
+      <c r="E90" s="41"/>
+      <c r="F90" s="45"/>
+      <c r="G90" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H90" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A91" s="11"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="41"/>
+      <c r="F91" s="45"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A92" s="11"/>
+      <c r="B92" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C92" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D92" s="12"/>
+      <c r="E92" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="F92" s="45">
+        <v>0</v>
+      </c>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A93" s="11"/>
+      <c r="B93" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C93" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D93" s="12"/>
+      <c r="E93" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="F93" s="45">
+        <v>0</v>
+      </c>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A94" s="11"/>
+      <c r="B94" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C94" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D94" s="12"/>
+      <c r="E94" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="F94" s="45">
+        <v>0</v>
+      </c>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A95" s="11"/>
+      <c r="B95" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C95" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D95" s="12"/>
+      <c r="E95" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="F95" s="45">
+        <v>0</v>
+      </c>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A96" s="11"/>
+      <c r="B96" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C96" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D96" s="12"/>
+      <c r="E96" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="F96" s="45">
+        <v>0</v>
+      </c>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A97" s="11"/>
+      <c r="B97" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C97" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D97" s="12"/>
+      <c r="E97" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="F97" s="45">
+        <v>0</v>
+      </c>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A98" s="11"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="41"/>
+      <c r="F98" s="45"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A99" s="11"/>
+      <c r="B99" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C90" s="34" t="s">
+      <c r="C99" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D99" s="12"/>
+      <c r="E99" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="F99" s="45">
+        <v>0</v>
+      </c>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A100" s="11"/>
+      <c r="B100" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C100" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D100" s="12"/>
+      <c r="E100" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="F100" s="45">
+        <v>0</v>
+      </c>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A101" s="11"/>
+      <c r="B101" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C101" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D101" s="12"/>
+      <c r="E101" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="F101" s="45">
+        <v>0</v>
+      </c>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A102" s="11"/>
+      <c r="B102" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C102" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D102" s="12"/>
+      <c r="E102" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="F102" s="45">
+        <v>0</v>
+      </c>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A103" s="11"/>
+      <c r="B103" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C103" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D103" s="12"/>
+      <c r="E103" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="F103" s="45">
+        <v>0</v>
+      </c>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A104" s="11"/>
+      <c r="B104" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C104" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D104" s="12"/>
+      <c r="E104" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="F104" s="45">
+        <v>0</v>
+      </c>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A105" s="11"/>
+      <c r="B105" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C105" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D105" s="12"/>
+      <c r="E105" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="F105" s="45">
+        <v>0</v>
+      </c>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A106" s="11"/>
+      <c r="B106" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C106" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="D90" s="12"/>
-      <c r="E90" s="41" t="s">
+      <c r="D106" s="12"/>
+      <c r="E106" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="F90" s="45">
-        <v>0</v>
-      </c>
-      <c r="G90" s="13"/>
-      <c r="H90" s="23" t="s">
+      <c r="F106" s="45">
+        <v>0</v>
+      </c>
+      <c r="G106" s="13"/>
+      <c r="H106" s="23" t="s">
         <v>192</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3">
-    <cfRule type="timePeriod" dxfId="19" priority="9" timePeriod="nextWeek">
+    <cfRule type="timePeriod" dxfId="9" priority="9" timePeriod="nextWeek">
       <formula>AND(ROUNDDOWN(B3,0)-TODAY()&gt;(7-WEEKDAY(TODAY())),ROUNDDOWN(B3,0)-TODAY()&lt;(15-WEEKDAY(TODAY())))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="18" priority="10" timePeriod="nextMonth">
+    <cfRule type="timePeriod" dxfId="8" priority="10" timePeriod="nextMonth">
       <formula>AND(MONTH(B3)=MONTH(EDATE(TODAY(),0+1)),YEAR(B3)=YEAR(EDATE(TODAY(),0+1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="テクスチャ">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="テクスチャ">
       <formula>NOT(ISERROR(SEARCH("テクスチャ",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="SE">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="SE">
       <formula>NOT(ISERROR(SEARCH("SE",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="BGM">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="BGM">
       <formula>NOT(ISERROR(SEARCH("BGM",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="モーション">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="モーション">
       <formula>NOT(ISERROR(SEARCH("モーション",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="モデル">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="モデル">
       <formula>NOT(ISERROR(SEARCH("モデル",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="プログラム">
+    <cfRule type="containsText" dxfId="2" priority="8" operator="containsText" text="プログラム">
       <formula>NOT(ISERROR(SEARCH("プログラム",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F90">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="F7:F106">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>0.3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/3Dゲーム制作/仕様書/仕様書_TEAM_RARITY.xlsx
+++ b/3Dゲーム制作/仕様書/仕様書_TEAM_RARITY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\game_3DteamC\3Dゲーム制作\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3457,8 +3457,8 @@
   <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
+      <pane ySplit="6" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3502,7 +3502,7 @@
     <row r="3" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="8">
         <f ca="1">TODAY()</f>
-        <v>44265</v>
+        <v>44272</v>
       </c>
       <c r="C3" s="6">
         <v>44225</v>

--- a/3Dゲーム制作/仕様書/仕様書_TEAM_RARITY.xlsx
+++ b/3Dゲーム制作/仕様書/仕様書_TEAM_RARITY.xlsx
@@ -3458,7 +3458,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
+      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3502,7 +3502,7 @@
     <row r="3" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="8">
         <f ca="1">TODAY()</f>
-        <v>44272</v>
+        <v>44284</v>
       </c>
       <c r="C3" s="6">
         <v>44225</v>
@@ -4572,7 +4572,7 @@
         <v>160</v>
       </c>
       <c r="F52" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="13" t="s">
         <v>245</v>
@@ -5123,7 +5123,9 @@
       <c r="E80" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="F80" s="45"/>
+      <c r="F80" s="45">
+        <v>1</v>
+      </c>
       <c r="G80" s="13" t="s">
         <v>283</v>
       </c>
@@ -5143,7 +5145,9 @@
       <c r="E81" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="F81" s="45"/>
+      <c r="F81" s="45">
+        <v>1</v>
+      </c>
       <c r="G81" s="13" t="s">
         <v>283</v>
       </c>
@@ -5163,7 +5167,9 @@
       <c r="E82" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="F82" s="45"/>
+      <c r="F82" s="45">
+        <v>1</v>
+      </c>
       <c r="G82" s="13" t="s">
         <v>283</v>
       </c>
@@ -5181,7 +5187,9 @@
       </c>
       <c r="D83" s="12"/>
       <c r="E83" s="41"/>
-      <c r="F83" s="45"/>
+      <c r="F83" s="45">
+        <v>1</v>
+      </c>
       <c r="G83" s="13" t="s">
         <v>284</v>
       </c>
@@ -5199,7 +5207,9 @@
       </c>
       <c r="D84" s="12"/>
       <c r="E84" s="41"/>
-      <c r="F84" s="45"/>
+      <c r="F84" s="45">
+        <v>1</v>
+      </c>
       <c r="G84" s="13" t="s">
         <v>284</v>
       </c>
@@ -5271,7 +5281,9 @@
       </c>
       <c r="D88" s="12"/>
       <c r="E88" s="41"/>
-      <c r="F88" s="45"/>
+      <c r="F88" s="45">
+        <v>1</v>
+      </c>
       <c r="G88" s="13" t="s">
         <v>284</v>
       </c>
@@ -5289,7 +5301,9 @@
       </c>
       <c r="D89" s="12"/>
       <c r="E89" s="41"/>
-      <c r="F89" s="45"/>
+      <c r="F89" s="45">
+        <v>1</v>
+      </c>
       <c r="G89" s="13" t="s">
         <v>284</v>
       </c>
@@ -5307,7 +5321,9 @@
       </c>
       <c r="D90" s="12"/>
       <c r="E90" s="41"/>
-      <c r="F90" s="45"/>
+      <c r="F90" s="45">
+        <v>1</v>
+      </c>
       <c r="G90" s="13" t="s">
         <v>284</v>
       </c>
